--- a/Sufficient data WITH_PO/B089FY7QT1_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B089FY7QT1_Optuna_PO_Forecast.xlsx
@@ -454,7 +454,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
